--- a/data/trans_orig/P71_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>31640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21907</v>
+        <v>21679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45957</v>
+        <v>44831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06762529950577159</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04682111880172599</v>
+        <v>0.04633561287339506</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09822347557212267</v>
+        <v>0.09581789233326954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>40497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30068</v>
+        <v>29251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53199</v>
+        <v>53772</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1338571403326063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09938302522889397</v>
+        <v>0.09668361628930379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.175838724189197</v>
+        <v>0.1777326766852887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>72138</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56074</v>
+        <v>57144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90353</v>
+        <v>90465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09363436543195326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07278397869533379</v>
+        <v>0.0741723696372503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.117276869616862</v>
+        <v>0.1174232915786139</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>436239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421922</v>
+        <v>423048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445972</v>
+        <v>446200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9323747004942284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9017765244278775</v>
+        <v>0.9041821076667305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.953178881198274</v>
+        <v>0.953664387126605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -836,19 +836,19 @@
         <v>262045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249343</v>
+        <v>248770</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272474</v>
+        <v>273291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8661428596673937</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8241612758108027</v>
+        <v>0.8222673233147113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9006169747711058</v>
+        <v>0.9033163837106962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>676</v>
@@ -857,19 +857,19 @@
         <v>698283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>680068</v>
+        <v>679956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714347</v>
+        <v>713277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9063656345680468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8827231303831384</v>
+        <v>0.8825767084213862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9272160213046663</v>
+        <v>0.9258276303627498</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33714</v>
+        <v>33143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58494</v>
+        <v>59145</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.125679305744256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09333576755896597</v>
+        <v>0.09175480213693041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1619387643108313</v>
+        <v>0.1637418799028919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -982,19 +982,19 @@
         <v>71049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55702</v>
+        <v>56119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85826</v>
+        <v>86586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1940623033635786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1521441999421165</v>
+        <v>0.1532817617510348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2344240172762708</v>
+        <v>0.2364983576939125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -1003,19 +1003,19 @@
         <v>116446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98694</v>
+        <v>99350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135377</v>
+        <v>139146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1601014143586244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1356941410655865</v>
+        <v>0.1365959220483111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1861299898554968</v>
+        <v>0.1913114320478414</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>315813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302716</v>
+        <v>302065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327496</v>
+        <v>328067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.874320694255744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8380612356891687</v>
+        <v>0.8362581200971081</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9066642324410341</v>
+        <v>0.9082451978630696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>289</v>
@@ -1053,19 +1053,19 @@
         <v>295066</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>280289</v>
+        <v>279529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>310413</v>
+        <v>309996</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8059376966364213</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7655759827237292</v>
+        <v>0.7635016423060875</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8478558000578834</v>
+        <v>0.8467182382489653</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>589</v>
@@ -1074,19 +1074,19 @@
         <v>610879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>591948</v>
+        <v>588179</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>628631</v>
+        <v>627975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8398985856413755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8138700101445032</v>
+        <v>0.8086885679521586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8643058589344136</v>
+        <v>0.8634040779516889</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>80199</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65441</v>
+        <v>64414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98652</v>
+        <v>98571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1502954790838226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1226379011390941</v>
+        <v>0.1207144125222988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1848769744561826</v>
+        <v>0.1847250475171349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1199,19 +1199,19 @@
         <v>35169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25789</v>
+        <v>25632</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46782</v>
+        <v>45947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2133343097464836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1564367706515789</v>
+        <v>0.1554835087377908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2837780354682695</v>
+        <v>0.2787164892234906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>116</v>
@@ -1220,19 +1220,19 @@
         <v>115367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97498</v>
+        <v>97078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136704</v>
+        <v>136744</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1651740941308923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1395897044455642</v>
+        <v>0.1389890361641094</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1957221888172926</v>
+        <v>0.1957796070315084</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>453409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>434956</v>
+        <v>435037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>468167</v>
+        <v>469194</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8497045209161774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8151230255438174</v>
+        <v>0.8152749524828651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.877362098860906</v>
+        <v>0.8792855874777011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1270,19 +1270,19 @@
         <v>129684</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118071</v>
+        <v>118906</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139064</v>
+        <v>139221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7866656902535164</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7162219645317304</v>
+        <v>0.7212835107765094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8435632293484208</v>
+        <v>0.8445164912622093</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -1291,19 +1291,19 @@
         <v>583093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561756</v>
+        <v>561716</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>600962</v>
+        <v>601382</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8348259058691077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8042778111827074</v>
+        <v>0.8042203929684915</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8604102955544357</v>
+        <v>0.86101096383589</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>275225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>247002</v>
+        <v>248279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>305553</v>
+        <v>304992</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2252584237247585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2021595661284519</v>
+        <v>0.2032044848796398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2500806321342727</v>
+        <v>0.2496209615149055</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -1416,19 +1416,19 @@
         <v>177362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156540</v>
+        <v>155872</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202199</v>
+        <v>202956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.256130924023803</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2260626327839668</v>
+        <v>0.2250975072291738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2919990228789176</v>
+        <v>0.2930920200377808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>440</v>
@@ -1437,19 +1437,19 @@
         <v>452587</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>414458</v>
+        <v>418844</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>489905</v>
+        <v>495112</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2364261097957149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.216508095588602</v>
+        <v>0.218799510167192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2559206283271516</v>
+        <v>0.2586407370104048</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>946594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916266</v>
+        <v>916827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>974817</v>
+        <v>973540</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7747415762752415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7499193678657274</v>
+        <v>0.7503790384850945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7978404338715481</v>
+        <v>0.7967955151203602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>504</v>
@@ -1487,19 +1487,19 @@
         <v>515103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>490266</v>
+        <v>489509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>535925</v>
+        <v>536593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.743869075976197</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.708000977121082</v>
+        <v>0.706907979962219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7739373672160331</v>
+        <v>0.7749024927708261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1439</v>
@@ -1508,19 +1508,19 @@
         <v>1461697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1424379</v>
+        <v>1419172</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1499826</v>
+        <v>1495440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7635738902042851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7440793716728487</v>
+        <v>0.7413592629895955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7834919044113982</v>
+        <v>0.7812004898328081</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>117427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101387</v>
+        <v>101322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135461</v>
+        <v>137047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3390115601123354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2927034076382437</v>
+        <v>0.2925180814232452</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3910759709803424</v>
+        <v>0.3956538421571166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -1633,19 +1633,19 @@
         <v>196181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>173201</v>
+        <v>173438</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220430</v>
+        <v>218520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3544238757225316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3129064800063495</v>
+        <v>0.3133344705559404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3982312339019174</v>
+        <v>0.394780795391667</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>294</v>
@@ -1654,19 +1654,19 @@
         <v>313608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>283291</v>
+        <v>285436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>342293</v>
+        <v>341555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3484915376018247</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3148019451539734</v>
+        <v>0.3171859909506388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3803664591364321</v>
+        <v>0.3795468178368599</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>228953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>210919</v>
+        <v>209333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244993</v>
+        <v>245058</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6609884398876646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6089240290196575</v>
+        <v>0.6043461578428833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7072965923617559</v>
+        <v>0.7074819185767546</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>343</v>
@@ -1704,19 +1704,19 @@
         <v>357341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>333092</v>
+        <v>335002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>380321</v>
+        <v>380084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6455761242774685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6017687660980823</v>
+        <v>0.6052192046083329</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6870935199936505</v>
+        <v>0.6866655294440597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>566</v>
@@ -1725,19 +1725,19 @@
         <v>586294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>557609</v>
+        <v>558347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>616611</v>
+        <v>614466</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6515084623981753</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6196335408635679</v>
+        <v>0.6204531821631402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6851980548460268</v>
+        <v>0.6828140090493612</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>34254</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24537</v>
+        <v>24167</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46094</v>
+        <v>45905</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1166752319725495</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08357859825587202</v>
+        <v>0.0823186882190946</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1570071071924981</v>
+        <v>0.1563629568103321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>394</v>
@@ -1850,19 +1850,19 @@
         <v>402075</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>365865</v>
+        <v>366343</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>431460</v>
+        <v>434454</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3257252364754701</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2963913837131169</v>
+        <v>0.2967782545262072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3495300425224356</v>
+        <v>0.3519558529447739</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>428</v>
@@ -1871,19 +1871,19 @@
         <v>436328</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>401916</v>
+        <v>400455</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>475370</v>
+        <v>474144</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2855591467500125</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2630376094445678</v>
+        <v>0.2620813112917232</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3111105765432772</v>
+        <v>0.3103081418732358</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>259326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247486</v>
+        <v>247675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269043</v>
+        <v>269413</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8833247680274505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8429928928075022</v>
+        <v>0.8436370431896719</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9164214017441288</v>
+        <v>0.9176813117809057</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>830</v>
@@ -1921,19 +1921,19 @@
         <v>832324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>802939</v>
+        <v>799945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>868534</v>
+        <v>868056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6742747635245299</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6504699574775643</v>
+        <v>0.6480441470552259</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7036086162868826</v>
+        <v>0.7032217454737928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1097</v>
@@ -1942,19 +1942,19 @@
         <v>1091651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1052609</v>
+        <v>1053835</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1126063</v>
+        <v>1127524</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7144408532499875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6888894234567231</v>
+        <v>0.6896918581267641</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7369623905554323</v>
+        <v>0.7379186887082761</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>584141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>542333</v>
+        <v>541978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>631916</v>
+        <v>628822</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1811585499271371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1681926950970672</v>
+        <v>0.1680824139096763</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1959749370979341</v>
+        <v>0.1950151816342872</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>885</v>
@@ -2067,19 +2067,19 @@
         <v>922333</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>870326</v>
+        <v>870585</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>976298</v>
+        <v>971324</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2783229281762342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2626293650602905</v>
+        <v>0.2627073833455066</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2946074321969873</v>
+        <v>0.2931063979580996</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1459</v>
@@ -2088,19 +2088,19 @@
         <v>1506474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1440052</v>
+        <v>1440127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1570922</v>
+        <v>1576208</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2304051549556664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2202462663057076</v>
+        <v>0.2202577341456956</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2402619505559392</v>
+        <v>0.2410704834698922</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2640335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2592560</v>
+        <v>2595654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2682143</v>
+        <v>2682498</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8188414500728629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8040250629020658</v>
+        <v>0.8049848183657128</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8318073049029328</v>
+        <v>0.8319175860903236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2348</v>
@@ -2138,19 +2138,19 @@
         <v>2391562</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2337597</v>
+        <v>2342571</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2443569</v>
+        <v>2443310</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7216770718237657</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7053925678030127</v>
+        <v>0.7068936020419002</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7373706349397094</v>
+        <v>0.7372926166544933</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4935</v>
@@ -2159,19 +2159,19 @@
         <v>5031897</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4967449</v>
+        <v>4962163</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5098319</v>
+        <v>5098244</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7695948450443336</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7597380494440608</v>
+        <v>0.7589295165301075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7797537336942922</v>
+        <v>0.7797422658543042</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>64126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48986</v>
+        <v>49121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82999</v>
+        <v>83204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1477487207744847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1128650508465502</v>
+        <v>0.1131756645910661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1912328807962378</v>
+        <v>0.1917053110211764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2526,19 +2526,19 @@
         <v>45733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33243</v>
+        <v>33343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60786</v>
+        <v>59958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1459103533114731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1060617620032505</v>
+        <v>0.1063797953000753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1939358323915492</v>
+        <v>0.1912945527073676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -2547,19 +2547,19 @@
         <v>109859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89396</v>
+        <v>89256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134881</v>
+        <v>132129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1469778268537418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1195999121361263</v>
+        <v>0.1194137375503973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1804531662118325</v>
+        <v>0.1767724371871486</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>369894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351021</v>
+        <v>350816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>385034</v>
+        <v>384899</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8522512792255152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8087671192037622</v>
+        <v>0.8082946889788242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8871349491534498</v>
+        <v>0.8868243354089342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -2597,19 +2597,19 @@
         <v>267702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252649</v>
+        <v>253477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280192</v>
+        <v>280092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8540896466885269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8060641676084509</v>
+        <v>0.8087054472926325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8939382379967495</v>
+        <v>0.8936202046999249</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -2618,19 +2618,19 @@
         <v>637596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>612574</v>
+        <v>615326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>658059</v>
+        <v>658199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8530221731462582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8195468337881674</v>
+        <v>0.8232275628128514</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8804000878638737</v>
+        <v>0.8805862624496026</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>57248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43609</v>
+        <v>42860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73933</v>
+        <v>73280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1383710250076234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1054043743978836</v>
+        <v>0.103595353540888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1787001622061217</v>
+        <v>0.1771224295598295</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -2743,19 +2743,19 @@
         <v>58602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45622</v>
+        <v>46168</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75360</v>
+        <v>75734</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1738527814218782</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1353449085200338</v>
+        <v>0.1369666431693924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2235688367393792</v>
+        <v>0.2246787195313346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -2764,19 +2764,19 @@
         <v>115849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96791</v>
+        <v>95591</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139926</v>
+        <v>138297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1543007278466956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1289174043303582</v>
+        <v>0.1273179074147942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1863686526135478</v>
+        <v>0.18419925161865</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>356478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>339793</v>
+        <v>340446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>370117</v>
+        <v>370866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8616289749923767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8212998377938783</v>
+        <v>0.8228775704401704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8945956256021165</v>
+        <v>0.896404646459112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>252</v>
@@ -2814,19 +2814,19 @@
         <v>278474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>261716</v>
+        <v>261342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291454</v>
+        <v>290908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8261472185781218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7764311632606208</v>
+        <v>0.7753212804686654</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8646550914799663</v>
+        <v>0.8630333568306077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>570</v>
@@ -2835,19 +2835,19 @@
         <v>634953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>610876</v>
+        <v>612505</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>654011</v>
+        <v>655211</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8456992721533044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8136313473864519</v>
+        <v>0.8158007483813502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8710825956696417</v>
+        <v>0.8726820925852058</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>212739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187433</v>
+        <v>189493</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>234368</v>
+        <v>238043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3385446269536286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2982729230557913</v>
+        <v>0.3015512369422328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3729637138484536</v>
+        <v>0.378812191430478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -2960,19 +2960,19 @@
         <v>74101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59359</v>
+        <v>59237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90098</v>
+        <v>88612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2869211819961753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.229840318366543</v>
+        <v>0.2293661791936034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3488600041507705</v>
+        <v>0.34310907381766</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -2981,19 +2981,19 @@
         <v>286840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>258511</v>
+        <v>257049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320812</v>
+        <v>314666</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3235078657704307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2915567745019957</v>
+        <v>0.2899085421157448</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3618222956670832</v>
+        <v>0.35489061467783</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>415654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>394025</v>
+        <v>390350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>440960</v>
+        <v>438900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6614553730463715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6270362861515464</v>
+        <v>0.6211878085695219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7017270769442087</v>
+        <v>0.6984487630577673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -3031,19 +3031,19 @@
         <v>184162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168165</v>
+        <v>169651</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198904</v>
+        <v>199026</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7130788180038247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6511399958492295</v>
+        <v>0.65689092618234</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.770159681633457</v>
+        <v>0.7706338208063966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>562</v>
@@ -3052,19 +3052,19 @@
         <v>599816</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>565844</v>
+        <v>571990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>628145</v>
+        <v>629607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6764921342295693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6381777043329167</v>
+        <v>0.64510938532217</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7084432254980042</v>
+        <v>0.7100914578842551</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>441776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>405942</v>
+        <v>407428</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>478490</v>
+        <v>477805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3829717300040148</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.351907876262009</v>
+        <v>0.3531964073293106</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.414799129440672</v>
+        <v>0.4142054199153265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>254</v>
@@ -3177,19 +3177,19 @@
         <v>278835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251789</v>
+        <v>254191</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306893</v>
+        <v>306402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3646159004427387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3292503971917325</v>
+        <v>0.332390573464008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4013069769407963</v>
+        <v>0.4006636943072795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>666</v>
@@ -3198,19 +3198,19 @@
         <v>720610</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>675953</v>
+        <v>680357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>763007</v>
+        <v>765805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3756540604586319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3523743282674394</v>
+        <v>0.3546701884080988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3977559556395353</v>
+        <v>0.3992141837035894</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>711770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>675056</v>
+        <v>675741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>747604</v>
+        <v>746118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6170282699959853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5852008705593281</v>
+        <v>0.5857945800846736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6480921237379911</v>
+        <v>0.6468035926706901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>455</v>
@@ -3248,19 +3248,19 @@
         <v>485900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457842</v>
+        <v>458333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>512946</v>
+        <v>510544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6353840995572613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5986930230592037</v>
+        <v>0.5993363056927205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6707496028082676</v>
+        <v>0.6676094265359921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1121</v>
@@ -3269,19 +3269,19 @@
         <v>1197670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1155273</v>
+        <v>1152475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1242327</v>
+        <v>1237923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6243459395413682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6022440443604647</v>
+        <v>0.6007858162964106</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6476256717325606</v>
+        <v>0.6453298115919012</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>211054</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>187908</v>
+        <v>187620</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>234547</v>
+        <v>235559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.413348261048026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3680179205088542</v>
+        <v>0.3674524772268087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4593588993482</v>
+        <v>0.4613415124415324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -3394,19 +3394,19 @@
         <v>312859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>284946</v>
+        <v>287785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>341825</v>
+        <v>339549</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4125397379663784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.37573431956993</v>
+        <v>0.3794769977951232</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.450735426252872</v>
+        <v>0.4477338409912327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>489</v>
@@ -3415,19 +3415,19 @@
         <v>523913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>487936</v>
+        <v>488498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>558644</v>
+        <v>561192</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.412865064331294</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3845141041992646</v>
+        <v>0.3849569533569629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4402352025734959</v>
+        <v>0.4422431800703605</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>299542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>276049</v>
+        <v>275037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>322688</v>
+        <v>322976</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.586651738951974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5406411006518002</v>
+        <v>0.5386584875584679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6319820794911459</v>
+        <v>0.6325475227731919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>411</v>
@@ -3465,19 +3465,19 @@
         <v>445513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>416547</v>
+        <v>418823</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>473426</v>
+        <v>470587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5874602620336216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5492645737471278</v>
+        <v>0.5522661590087676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6242656804300698</v>
+        <v>0.6205230022048768</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>698</v>
@@ -3486,19 +3486,19 @@
         <v>745055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>710324</v>
+        <v>707776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>781032</v>
+        <v>780470</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.587134935668706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5597647974265041</v>
+        <v>0.5577568199296394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6154858958007353</v>
+        <v>0.6150430466430371</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>54043</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43105</v>
+        <v>41640</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69103</v>
+        <v>68051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2047097417538562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1632786353975282</v>
+        <v>0.1577291044579928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2617595870946345</v>
+        <v>0.2577746288877403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>323</v>
@@ -3611,19 +3611,19 @@
         <v>346813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>316113</v>
+        <v>317521</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>376440</v>
+        <v>382391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3145244138370111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2866833472659282</v>
+        <v>0.2879601782502858</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3413934174538994</v>
+        <v>0.3467903447324471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>376</v>
@@ -3632,19 +3632,19 @@
         <v>400855</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>369341</v>
+        <v>369407</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>436259</v>
+        <v>436764</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2933115437739316</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2702519797247984</v>
+        <v>0.2703007890269043</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3192167750313726</v>
+        <v>0.3195862931677187</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>209953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194893</v>
+        <v>195945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220891</v>
+        <v>222356</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7952902582461439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7382404129053656</v>
+        <v>0.7422253711122595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8367213646024718</v>
+        <v>0.8422708955420072</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>715</v>
@@ -3682,19 +3682,19 @@
         <v>755844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>726217</v>
+        <v>720266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>786544</v>
+        <v>785136</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6854755861629889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6586065825461004</v>
+        <v>0.6532096552675528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7133166527340717</v>
+        <v>0.7120398217497137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>924</v>
@@ -3703,19 +3703,19 @@
         <v>965798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>930394</v>
+        <v>929889</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>997312</v>
+        <v>997246</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7066884562260684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6807832249686273</v>
+        <v>0.6804137068322811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7297480202752016</v>
+        <v>0.7296992109730955</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1040984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>987427</v>
+        <v>986036</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1100647</v>
+        <v>1098622</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3057873189477151</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2900548276249327</v>
+        <v>0.2896463630252624</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3233130386969078</v>
+        <v>0.3227183498883955</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1028</v>
@@ -3828,19 +3828,19 @@
         <v>1116942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1061245</v>
+        <v>1060667</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1179256</v>
+        <v>1173544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3160078747253412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3002501036714313</v>
+        <v>0.3000864971119479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3336379316744418</v>
+        <v>0.3320220089124257</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2004</v>
@@ -3849,19 +3849,19 @@
         <v>2157926</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2077719</v>
+        <v>2076190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2239604</v>
+        <v>2239192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3109935315345138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.29943426836649</v>
+        <v>0.2992139168151553</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3227647257893732</v>
+        <v>0.3227053038117288</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2363292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2303629</v>
+        <v>2305654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2416849</v>
+        <v>2418240</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6942126810522848</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6766869613030922</v>
+        <v>0.6772816501116049</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7099451723750673</v>
+        <v>0.7103536369747381</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2248</v>
@@ -3899,19 +3899,19 @@
         <v>2417596</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2355282</v>
+        <v>2360994</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2473293</v>
+        <v>2473871</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6839921252746588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6663620683255579</v>
+        <v>0.6679779910875738</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6997498963285684</v>
+        <v>0.699913502888052</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4461</v>
@@ -3920,19 +3920,19 @@
         <v>4780888</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4699210</v>
+        <v>4699622</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4861095</v>
+        <v>4862624</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6890064684654863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6772352742106269</v>
+        <v>0.6772946961882711</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.70056573163351</v>
+        <v>0.7007860831848447</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>52701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39902</v>
+        <v>40102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68649</v>
+        <v>66957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1241771134265767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09401988503943376</v>
+        <v>0.09449034313370766</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1617556791775987</v>
+        <v>0.1577697243115315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -4287,19 +4287,19 @@
         <v>45373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33931</v>
+        <v>33314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57857</v>
+        <v>58419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1307363697518429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09776820392212071</v>
+        <v>0.09599110488723224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1667083104659605</v>
+        <v>0.1683271123864872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -4308,19 +4308,19 @@
         <v>98073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79431</v>
+        <v>81563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116608</v>
+        <v>118192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1271279337790772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1029624131060268</v>
+        <v>0.1057268950284272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1511539499241247</v>
+        <v>0.153207255692844</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>371698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355750</v>
+        <v>357442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>384497</v>
+        <v>384297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8758228865734233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8382443208224015</v>
+        <v>0.8422302756884685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9059801149605664</v>
+        <v>0.9055096568662924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -4358,19 +4358,19 @@
         <v>301682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289198</v>
+        <v>288636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313124</v>
+        <v>313741</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8692636302481571</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8332916895340395</v>
+        <v>0.8316728876135128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9022317960778794</v>
+        <v>0.9040088951127677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>629</v>
@@ -4379,19 +4379,19 @@
         <v>673381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>654846</v>
+        <v>653262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>692023</v>
+        <v>689891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8728720662209228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8488460500758753</v>
+        <v>0.846792744307156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8970375868939733</v>
+        <v>0.8942731049715728</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>84142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69817</v>
+        <v>66896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102506</v>
+        <v>101970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2241406765925482</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1859811659627595</v>
+        <v>0.1781995999776224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2730588380445834</v>
+        <v>0.2716314101022867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -4504,19 +4504,19 @@
         <v>93946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77064</v>
+        <v>78911</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112129</v>
+        <v>111445</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2534670865216776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.207919952301536</v>
+        <v>0.2129041123143606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3025267127498305</v>
+        <v>0.3006814510082949</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -4525,19 +4525,19 @@
         <v>178088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154952</v>
+        <v>155972</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>202865</v>
+        <v>202054</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2387103857969292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2076980895968897</v>
+        <v>0.2090656550582445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2719214283441174</v>
+        <v>0.270833890601142</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>291258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272894</v>
+        <v>273430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>305583</v>
+        <v>308504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7758593234074519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7269411619554166</v>
+        <v>0.7283685898977134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8140188340372405</v>
+        <v>0.8218004000223776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>263</v>
@@ -4575,19 +4575,19 @@
         <v>276697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>258514</v>
+        <v>259198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>293579</v>
+        <v>291732</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7465329134783224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6974732872501698</v>
+        <v>0.6993185489917052</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.792080047698464</v>
+        <v>0.7870958876856394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>536</v>
@@ -4596,19 +4596,19 @@
         <v>567955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>543178</v>
+        <v>543989</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>591091</v>
+        <v>590071</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7612896142030707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7280785716558825</v>
+        <v>0.7291661093988571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7923019104031103</v>
+        <v>0.7909343449417546</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>192891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168504</v>
+        <v>170128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216972</v>
+        <v>216091</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3725240004162189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.325425911760097</v>
+        <v>0.328561162469291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4190297724981521</v>
+        <v>0.417327660433912</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4721,19 +4721,19 @@
         <v>54649</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42075</v>
+        <v>42619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67302</v>
+        <v>67123</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3349319140303987</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2578701928631578</v>
+        <v>0.2612059765594054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4124792426485883</v>
+        <v>0.4113854599204724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -4742,19 +4742,19 @@
         <v>247540</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>223505</v>
+        <v>224307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>273422</v>
+        <v>272459</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3635165841693955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3282202878551904</v>
+        <v>0.3293984325348105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4015248065729502</v>
+        <v>0.4001097318850644</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>324905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300824</v>
+        <v>301705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349292</v>
+        <v>347668</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6274759995837812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5809702275018479</v>
+        <v>0.5826723395660881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6745740882399029</v>
+        <v>0.671438837530709</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -4792,19 +4792,19 @@
         <v>108515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95862</v>
+        <v>96041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121089</v>
+        <v>120545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6650680859696013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5875207573514116</v>
+        <v>0.5886145400795276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7421298071368421</v>
+        <v>0.7387940234405946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>418</v>
@@ -4813,19 +4813,19 @@
         <v>433420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>407538</v>
+        <v>408501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457455</v>
+        <v>456653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6364834158306044</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5984751934270498</v>
+        <v>0.5998902681149356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6717797121448096</v>
+        <v>0.6706015674651895</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>441010</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>408655</v>
+        <v>411528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>474392</v>
+        <v>477523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3863396554846518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3579956758066868</v>
+        <v>0.3605125646069511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4155836088592502</v>
+        <v>0.4183268492506981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -4938,19 +4938,19 @@
         <v>316268</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>287681</v>
+        <v>290691</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>344489</v>
+        <v>345060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3853008217605732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3504739422399167</v>
+        <v>0.3541406551832013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4196815952022714</v>
+        <v>0.4203765830415894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>726</v>
@@ -4959,19 +4959,19 @@
         <v>757278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>715529</v>
+        <v>712852</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>801421</v>
+        <v>800871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.385905118246507</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3646297389725155</v>
+        <v>0.3632659864670563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4083998692972527</v>
+        <v>0.4081200253902098</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>700498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>667116</v>
+        <v>663985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>732853</v>
+        <v>729980</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6136603445153482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5844163911407495</v>
+        <v>0.5816731507493019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6420043241933127</v>
+        <v>0.6394874353930489</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -5009,19 +5009,19 @@
         <v>504567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>476346</v>
+        <v>475775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>533154</v>
+        <v>530144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6146991782394268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5803184047977286</v>
+        <v>0.5796234169584106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6495260577600832</v>
+        <v>0.6458593448167987</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1163</v>
@@ -5030,19 +5030,19 @@
         <v>1205065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1160922</v>
+        <v>1161472</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1246814</v>
+        <v>1249491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6140948817534929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5916001307027473</v>
+        <v>0.5918799746097901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6353702610274845</v>
+        <v>0.6367340135329437</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>292204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>268729</v>
+        <v>268709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>316403</v>
+        <v>318263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4752153128014618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4370374147230042</v>
+        <v>0.4370056009556021</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5145706428924375</v>
+        <v>0.517595774071431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>372</v>
@@ -5155,19 +5155,19 @@
         <v>392242</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>365380</v>
+        <v>363819</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>417818</v>
+        <v>420081</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5319835187517944</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4955520555656035</v>
+        <v>0.4934348631307693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5666708388898201</v>
+        <v>0.5697402547513311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>648</v>
@@ -5176,19 +5176,19 @@
         <v>684446</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>650267</v>
+        <v>645036</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>724319</v>
+        <v>719198</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5061693928107976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.480893139443109</v>
+        <v>0.4770245884638569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5356568219381879</v>
+        <v>0.5318699036113254</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>322683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>298484</v>
+        <v>296624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346158</v>
+        <v>346178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5247846871985381</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4854293571075622</v>
+        <v>0.4824042259285689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5629625852769958</v>
+        <v>0.5629943990443977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -5226,19 +5226,19 @@
         <v>345078</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>319502</v>
+        <v>317239</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>371940</v>
+        <v>373501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4680164812482056</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4333291611101798</v>
+        <v>0.4302597452486686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5044479444343964</v>
+        <v>0.5065651368692307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>641</v>
@@ -5247,19 +5247,19 @@
         <v>667761</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>627888</v>
+        <v>633009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>701940</v>
+        <v>707171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4938306071892023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4643431780618122</v>
+        <v>0.4681300963886746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.519106860556891</v>
+        <v>0.5229754115361428</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>63917</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50611</v>
+        <v>50637</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79765</v>
+        <v>78929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2245352399753213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1777905407853905</v>
+        <v>0.1778829213455485</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2802074959724226</v>
+        <v>0.2772710061347819</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>325</v>
@@ -5372,19 +5372,19 @@
         <v>354844</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>321349</v>
+        <v>323579</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>385818</v>
+        <v>384926</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.33014017483098</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2989772540292868</v>
+        <v>0.3010515926743602</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3589577226457871</v>
+        <v>0.3581276932919878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>385</v>
@@ -5393,19 +5393,19 @@
         <v>418761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>384074</v>
+        <v>384040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>453892</v>
+        <v>458184</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.308027573142421</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2825129884641211</v>
+        <v>0.2824875928346857</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3338686459639725</v>
+        <v>0.3370259913646063</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>220747</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204899</v>
+        <v>205735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234053</v>
+        <v>234027</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7754647600246787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7197925040275774</v>
+        <v>0.7227289938652183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8222094592146096</v>
+        <v>0.8221170786544517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>660</v>
@@ -5443,19 +5443,19 @@
         <v>719985</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>689011</v>
+        <v>689903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>753480</v>
+        <v>751250</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.66985982516902</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6410422773542129</v>
+        <v>0.6418723067080121</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7010227459707137</v>
+        <v>0.6989484073256396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>870</v>
@@ -5464,19 +5464,19 @@
         <v>940732</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>905601</v>
+        <v>901309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>975419</v>
+        <v>975453</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6919724268575791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6661313540360276</v>
+        <v>0.6629740086353938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.717487011535879</v>
+        <v>0.7175124071653145</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1126865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1066981</v>
+        <v>1071498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1179398</v>
+        <v>1183087</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3355109308772191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3176812034157074</v>
+        <v>0.3190259527340346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3511520358687707</v>
+        <v>0.3522502094293652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1186</v>
@@ -5589,19 +5589,19 @@
         <v>1257322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1203326</v>
+        <v>1202626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1317338</v>
+        <v>1320067</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3578193414013755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.342452785817726</v>
+        <v>0.3422534038551592</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3748992037559185</v>
+        <v>0.3756759513317973</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2251</v>
@@ -5610,19 +5610,19 @@
         <v>2384187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2305775</v>
+        <v>2299019</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2459554</v>
+        <v>2463596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3469170160959729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3355075283215056</v>
+        <v>0.3345243866303561</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3578833876512086</v>
+        <v>0.3584715381678678</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2231789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2179256</v>
+        <v>2175567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2291673</v>
+        <v>2287156</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6644890691227809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6488479641312292</v>
+        <v>0.6477497905706349</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6823187965842925</v>
+        <v>0.6809740472659654</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2124</v>
@@ -5660,19 +5660,19 @@
         <v>2256524</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2196508</v>
+        <v>2193779</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2310520</v>
+        <v>2311220</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6421806585986245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6251007962440815</v>
+        <v>0.6243240486682027</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.657547214182274</v>
+        <v>0.6577465961448408</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4257</v>
@@ -5681,19 +5681,19 @@
         <v>4488313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4412946</v>
+        <v>4408904</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4566725</v>
+        <v>4573481</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6530829839040272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6421166123487917</v>
+        <v>0.6415284618321324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6644924716784946</v>
+        <v>0.665475613369644</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>28814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19476</v>
+        <v>18781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42162</v>
+        <v>41990</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05252639761641976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03550474982883468</v>
+        <v>0.03423677480738069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07686021992315209</v>
+        <v>0.07654574244387533</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>18296</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11203</v>
+        <v>12293</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26429</v>
+        <v>27833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03764019131935079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02304723037758536</v>
+        <v>0.02529113285197559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05437126563565781</v>
+        <v>0.05726009768441712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -6069,19 +6069,19 @@
         <v>47110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34112</v>
+        <v>36388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60961</v>
+        <v>64191</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04553275605409043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03296998881965588</v>
+        <v>0.03516954754704507</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05892013145907925</v>
+        <v>0.06204192812329099</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>519743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>506395</v>
+        <v>506567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>529081</v>
+        <v>529776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9474736023835802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.923139780076848</v>
+        <v>0.9234542575561248</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9644952501711653</v>
+        <v>0.9657632251926193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>657</v>
@@ -6119,19 +6119,19 @@
         <v>467783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>459650</v>
+        <v>458246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>474876</v>
+        <v>473786</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9623598086806493</v>
+        <v>0.9623598086806492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9456287343643427</v>
+        <v>0.942739902315583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9769527696224147</v>
+        <v>0.9747088671480245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1183</v>
@@ -6140,19 +6140,19 @@
         <v>987527</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>973676</v>
+        <v>970446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1000525</v>
+        <v>998249</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9544672439459095</v>
+        <v>0.9544672439459094</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.941079868540921</v>
+        <v>0.9379580718767115</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9670300111803445</v>
+        <v>0.9648304524529551</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>17906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11176</v>
+        <v>10985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29839</v>
+        <v>27810</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03714852447761085</v>
+        <v>0.03714852447761084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02318713993350344</v>
+        <v>0.02279004708540928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06190587365402613</v>
+        <v>0.0576966919934031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -6265,19 +6265,19 @@
         <v>28242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20726</v>
+        <v>20357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38729</v>
+        <v>38148</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0671318466886716</v>
+        <v>0.06713184668867161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04926718905910833</v>
+        <v>0.04838802156993698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09205985017274014</v>
+        <v>0.09067834734211697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -6286,19 +6286,19 @@
         <v>46147</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35470</v>
+        <v>36044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61230</v>
+        <v>59805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05112206984954323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03929414610649067</v>
+        <v>0.03992896562052421</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06783061510746853</v>
+        <v>0.06625139492514215</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>464092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452159</v>
+        <v>454188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470822</v>
+        <v>471013</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9628514755223891</v>
+        <v>0.962851475522389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9380941263459738</v>
+        <v>0.9423033080065968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9768128600664966</v>
+        <v>0.9772099529145907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>548</v>
@@ -6336,19 +6336,19 @@
         <v>392452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>381965</v>
+        <v>382546</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399968</v>
+        <v>400337</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9328681533113283</v>
+        <v>0.9328681533113284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9079401498272603</v>
+        <v>0.9093216526578832</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9507328109408916</v>
+        <v>0.9516119784300631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1010</v>
@@ -6357,19 +6357,19 @@
         <v>856544</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>841461</v>
+        <v>842886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>867221</v>
+        <v>866647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9488779301504568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9321693848925314</v>
+        <v>0.9337486050748577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9607058538935094</v>
+        <v>0.9600710343794757</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>63353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50374</v>
+        <v>48593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79103</v>
+        <v>78856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1346206104611212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1070407037947241</v>
+        <v>0.1032567345232115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1680876038788555</v>
+        <v>0.1675627591033317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -6482,19 +6482,19 @@
         <v>22385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16287</v>
+        <v>15874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30818</v>
+        <v>30380</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1201486829538484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08742045499858425</v>
+        <v>0.0852018730557204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1654110920689154</v>
+        <v>0.1630645285976926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -6503,19 +6503,19 @@
         <v>85738</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70453</v>
+        <v>71910</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103378</v>
+        <v>104349</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1305162013277489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1072485194908382</v>
+        <v>0.1094661652029845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1573682274028476</v>
+        <v>0.1588475180139104</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>407253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>391503</v>
+        <v>391750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>420232</v>
+        <v>422013</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8653793895388789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8319123961211444</v>
+        <v>0.8324372408966685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8929592962052756</v>
+        <v>0.8967432654767887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -6553,19 +6553,19 @@
         <v>163924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155491</v>
+        <v>155929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170022</v>
+        <v>170435</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8798513170461515</v>
+        <v>0.8798513170461517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8345889079310854</v>
+        <v>0.836935471402308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9125795450014159</v>
+        <v>0.9147981269442796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>678</v>
@@ -6574,19 +6574,19 @@
         <v>571177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553537</v>
+        <v>552566</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586462</v>
+        <v>585005</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8694837986722511</v>
+        <v>0.8694837986722512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8426317725971525</v>
+        <v>0.8411524819860897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8927514805091616</v>
+        <v>0.8905338347970158</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>174480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149998</v>
+        <v>147876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>203621</v>
+        <v>202192</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1557929332640678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1339333297219563</v>
+        <v>0.1320385801418353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1818136554493929</v>
+        <v>0.1805374279638193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -6699,19 +6699,19 @@
         <v>141586</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124737</v>
+        <v>122595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161115</v>
+        <v>160207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1655084456031516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1458132192108587</v>
+        <v>0.1433089162001293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1883374262061522</v>
+        <v>0.1872757595543384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>363</v>
@@ -6720,19 +6720,19 @@
         <v>316065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>283567</v>
+        <v>283015</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349397</v>
+        <v>348195</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1600002856106857</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1435489093399314</v>
+        <v>0.1432694291043538</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1768738266841169</v>
+        <v>0.1762648792155043</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>945466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916325</v>
+        <v>917754</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>969948</v>
+        <v>972070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8442070667359323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8181863445506069</v>
+        <v>0.8194625720361808</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8660666702780436</v>
+        <v>0.8679614198581644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1021</v>
@@ -6770,19 +6770,19 @@
         <v>713873</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>694344</v>
+        <v>695252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>730722</v>
+        <v>732864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8344915543968484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8116625737938479</v>
+        <v>0.8127242404456619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8541867807891413</v>
+        <v>0.8566910837998709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1968</v>
@@ -6791,19 +6791,19 @@
         <v>1659340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1626008</v>
+        <v>1627210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1691838</v>
+        <v>1692390</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8399997143893143</v>
+        <v>0.8399997143893144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8231261733158832</v>
+        <v>0.8237351207844956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.856451090660069</v>
+        <v>0.8567305708956462</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>162903</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142089</v>
+        <v>138853</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>185879</v>
+        <v>187420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2933666655891016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2558837845595027</v>
+        <v>0.2500558685396186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3347429953723506</v>
+        <v>0.3375187381133355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>351</v>
@@ -6916,19 +6916,19 @@
         <v>246232</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224057</v>
+        <v>221905</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>269572</v>
+        <v>268734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2979747047760531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2711401519268188</v>
+        <v>0.2685352280313267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3262188140353793</v>
+        <v>0.3252048412855014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>510</v>
@@ -6937,19 +6937,19 @@
         <v>409135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>379501</v>
+        <v>374598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>443662</v>
+        <v>439662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2961227131213911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2746740301431745</v>
+        <v>0.271125369090653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3211126629591216</v>
+        <v>0.3182170709047297</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>392385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>369409</v>
+        <v>367868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>413199</v>
+        <v>416435</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7066333344108985</v>
+        <v>0.7066333344108983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6652570046276494</v>
+        <v>0.6624812618866643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7441162154404974</v>
+        <v>0.7499441314603812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>932</v>
@@ -6987,19 +6987,19 @@
         <v>580121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>556781</v>
+        <v>557619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>602296</v>
+        <v>604448</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.702025295223947</v>
+        <v>0.7020252952239469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6737811859646207</v>
+        <v>0.6747951587144986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7288598480731813</v>
+        <v>0.7314647719686734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1310</v>
@@ -7008,19 +7008,19 @@
         <v>972506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>937979</v>
+        <v>941979</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1002140</v>
+        <v>1007043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7038772868786088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6788873370408783</v>
+        <v>0.6817829290952702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7253259698568254</v>
+        <v>0.7288746309093469</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>35111</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19873</v>
+        <v>20647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54079</v>
+        <v>53287</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1591743570557489</v>
+        <v>0.159174357055749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09009618896940795</v>
+        <v>0.09360535180848287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2451663127777407</v>
+        <v>0.2415782289657275</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>194</v>
@@ -7133,19 +7133,19 @@
         <v>149176</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>128326</v>
+        <v>128064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171050</v>
+        <v>171249</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1798384707304723</v>
+        <v>0.1798384707304722</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1547034114962422</v>
+        <v>0.1543869154559775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2062095731190881</v>
+        <v>0.2064493165356025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -7154,19 +7154,19 @@
         <v>184286</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>157293</v>
+        <v>156993</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>212787</v>
+        <v>213630</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1754977595043763</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1497920923994682</v>
+        <v>0.1495062710480937</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.202638936556117</v>
+        <v>0.2034417871958636</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>185469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166501</v>
+        <v>167293</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>200707</v>
+        <v>199933</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.840825642944251</v>
+        <v>0.8408256429442511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7548336872222589</v>
+        <v>0.7584217710342722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9099038110305918</v>
+        <v>0.9063946481915168</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>940</v>
@@ -7204,19 +7204,19 @@
         <v>680322</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>658448</v>
+        <v>658249</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>701172</v>
+        <v>701434</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8201615292695278</v>
+        <v>0.8201615292695277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7937904268809119</v>
+        <v>0.7935506834643974</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8452965885037578</v>
+        <v>0.8456130845440224</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1029</v>
@@ -7225,19 +7225,19 @@
         <v>865792</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>837291</v>
+        <v>836448</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>892785</v>
+        <v>893085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8245022404956237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7973610634438827</v>
+        <v>0.7965582128041365</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8502079076005318</v>
+        <v>0.8504937289519063</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>482566</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>442872</v>
+        <v>440847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>534668</v>
+        <v>528895</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1420575147020304</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1303724074583818</v>
+        <v>0.1297764611888791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1573954704418681</v>
+        <v>0.1556959308780693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>845</v>
@@ -7350,19 +7350,19 @@
         <v>605917</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>566642</v>
+        <v>566221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>645593</v>
+        <v>647747</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1681050514673499</v>
+        <v>0.1681050514673498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1572086420366686</v>
+        <v>0.1570918177029662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1791127118858199</v>
+        <v>0.1797104201004324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1289</v>
@@ -7371,19 +7371,19 @@
         <v>1088483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1029923</v>
+        <v>1025598</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1153054</v>
+        <v>1153482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1554671179617994</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.147103098333432</v>
+        <v>0.1464853721533586</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1646898291149643</v>
+        <v>0.1647508891838603</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2914409</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2862307</v>
+        <v>2868080</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2954103</v>
+        <v>2956128</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8579424852979696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8426045295581313</v>
+        <v>0.8443040691219306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8696275925416183</v>
+        <v>0.8702235388111209</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4351</v>
@@ -7421,19 +7421,19 @@
         <v>2998476</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2958800</v>
+        <v>2956646</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3037751</v>
+        <v>3038172</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8318949485326502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8208872881141805</v>
+        <v>0.8202895798995675</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8427913579633316</v>
+        <v>0.8429081822970337</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7178</v>
@@ -7442,19 +7442,19 @@
         <v>5912885</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5848314</v>
+        <v>5847886</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5971445</v>
+        <v>5975770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8445328820382006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8353101708850357</v>
+        <v>0.8352491108161398</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.852896901666568</v>
+        <v>0.8535146278466414</v>
       </c>
     </row>
     <row r="24">
